--- a/p8_p9_p124_pnames_goarchive.xlsx
+++ b/p8_p9_p124_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_6</t>
+    <t>name_1</t>
   </si>
   <si>
     <t>kk""k</t>

--- a/p8_p9_p124_pnames_goarchive.xlsx
+++ b/p8_p9_p124_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_1</t>
+    <t>name_2</t>
   </si>
   <si>
     <t>kk""k</t>

--- a/p8_p9_p124_pnames_goarchive.xlsx
+++ b/p8_p9_p124_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_2</t>
+    <t>name_1</t>
   </si>
   <si>
     <t>kk""k</t>

--- a/p8_p9_p124_pnames_goarchive.xlsx
+++ b/p8_p9_p124_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_1</t>
+    <t>name_3</t>
   </si>
   <si>
     <t>kk""k</t>
